--- a/Sensor_Model/Inputs/se_ig_inputs.xlsx
+++ b/Sensor_Model/Inputs/se_ig_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neilabh\Documents\GitHub\STADS_IITBSSP\Sensor_Model\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33B045-B471-4D4F-B5E0-67D03750D8AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F465B9B1-354B-44BC-883D-529EE432A9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="12960" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="12960" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="se_ig_inputs" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Variable Name</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Exposure Time</t>
+  </si>
+  <si>
+    <t>Lens Efficiency</t>
   </si>
 </sst>
 </file>
@@ -926,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,12 +1032,23 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
